--- a/500all/speech_level/speeches_CHRG-114hhrg20216.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20216.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>412469</t>
   </si>
   <si>
-    <t>Lou Barletta</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Barletta. The committee will come to order. Good morning.    Border security is a fundamental responsibility of the Federal Government because we must protect both our national security and the American worker. This makes border stations critical to our Nation's security and our economy.The purpose of today's hearing is to review major capital projects at our Nation's border stations and examine how we can use non-Federal and private dollars that are sitting on the sidelines to jumpstart projects to help meet these infrastructure needs.    It is important that the men and women who guard our border have the resources that they need to better enforce our existing immigration and trade laws.    There are 167 land ports of entry, also known as border stations, that, according to GSA, see roughly $2 billion in trade crossings; 350,000 vehicles; 135,000 pedestrians, and 30,000 trucks daily. These land ports of entry are important to our national security, as they serve as a line of defense against those who would enter this country illegally and with the intent of attacking our homeland.    However, the cost of maintaining and modernizing our land ports of entry is not cheap. Projects recently completed or underway in recent years have totaled $1.5 billion. And these costs don't include equipping and staffing these border stations. That is why I worked to help craft language enacted in the fiscal year 2014 appropriations bill to establish a pilot program for public-private partnerships.    This pilot program allows for non-Federal donations of real property and equipment at owned border stations to help reduce costs to the taxpayer. More recently, language further refining this program was included as part of H.R. 3586, the Border and Maritime Coordination Improvement Act.    The intent of this pilot program is not to replace the Federal responsibility of constructing and maintaining these critical facilities. To be clear, making sure that we have the infrastructure and tools in place to enforce immigration and trade laws is a Federal responsibility. Rather, the intent is to provide additional tools to GSA and CBP to work with State, local, and private sector partners to help temporarily address the funding gaps.    Potential donations under the pilot should not be used to replace our Federal responsibility or to circumvent our process of appropriately identifying priorities and needs. Donations, whether they be of real property or equipment, are not free. Generally, acquisition costs are only a portion of the total cost of an asset.    Each project considered under the pilot program should be limited in scope and be carefully reviewed to ensure it fits with our national priorities and that the costs associated with ongoing maintenance and upkeep are assessed to protect the taxpayer from picking up an unexpected bill down the road.    While CBP owns 42 percent of the owned stations, GSA owns and manages all of the largest and most heavily used border stations. The size and complexity of these facilities vary widely and include facilities with traffic as little as two vehicles a day and 3,000-square-foot buildings, to large complexes that see thousands of vehicles and house a multitude of Federal agencies, including CBP, ICE, Agriculture, CDC, and the FDA.    Unfortunately, many of these border stations have not kept up with new technologies, threats, and traffic. We must ensure that we can effectively screen people and goods to protect our Nation's security and commerce, but at the same time facilitate the movement of legitimate traffic and goods. This is a tough balance, and the facilities and related infrastructure managed by GSA and CBP are critical to this mission.    Without proper facilities, new technologies like biometric entry and exit systems that better screen people and vehicles cannot be effectively deployed. Without space for all the key agencies to operate, commerce may be slowed, hurting American businesses and killing job opportunities.    Today, I am pleased to have GSA and CBP, as well as private and local representatives here with us today. We want to know the status of projects that we have authorized, what are the future needs and priorities, and how public-private partnerships could be effectively used to help temporarily fill any gaps. I hope we can get answers to these and other questions today. I look forward to hearing from our witnesses today, and I want to thank you.    And I now call on the ranking member of the subcommittee, Mr. Carson, for his opening statement.</t>
   </si>
   <si>
     <t>412258</t>
   </si>
   <si>
-    <t>André Carson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Carson. Thank you, Chairman Barletta. Good morning, everyone.    The GSA serves an important role as the property and construction manager for the Federal Government. Today(s hearing rightly chooses to focus on how GSA can continue to effectively manage the land ports of entry construction program.    GSA owns and manages all of the largest land ports of entry along the southern border. Daily nearly $2 billion in trade crosses through the border crossings, along with 355,000 vehicles; the 135,000 pedestrians; and 30,000 trucks. Today we hope to learn how GSA is improving the infrastructure at land ports of entry, and how they can facilitate more efficient and secure crossings between the United States and its trading partners along the southern and northern borders.    I would like to thank Deputy Commissioner Michael Gelber of GSA for joining us today to outline the agency's role in maintaining and constructing land ports of entry. The Department of Homeland Security often has the largest Federal agency presence at land ports of entry and border stations, so I am pleased that they will be joining us, as well.    I am also pleased that we have two organizations representing private sector organizations for coming in today and giving us their perspective on working with GSA and DHS. I also look forward to hearing their insights on how DHS is implementing the pilot public-private donation program that is meant to speed the development of land ports of entry. Thank you for coming.    I yield back, Mr. Chairman.</t>
   </si>
   <si>
@@ -76,18 +70,12 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Gelber</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gelber. Good morning, Chairman Barletta, Ranking Member Carson. My name is Michael Gelber, and I am the Deputy Commissioner of the U.S. General Services Administration's Public Building Service. Thank you for inviting me to this hearing on land ports of entry construction.    GSA's mission is to deliver the best value in real estate, acquisition, and technology services to the Government and the American people. As part of this mission, GSA maintains a close partnership with the Department of Homeland Security Customs and Border Protection to meet that agency's space needs along our Nation's borders.    CBP is our primary partner among the Federal inspection agencies stationed along America's land borders. GSA works closely with CBP to design, construct, maintain, and operate land ports of entry along more than 1,900 miles of border between the United States and Mexico, and more than 5,500 miles of border between the United States and Canada. Of the 167 land ports of entry along America's borders, GSA manages 124, of which the Government owns or partially owns 102. GSA's land ports of entry encompass more than 5.5 million square feet of space.    CBP operates 40 primarily smaller ports, mostly in remote areas. These land ports of entry encompass approximately 477,000 square feet of space. Minimizing costs to deliver these critical land ports of entry begins with effective targeting of resources at the highest priority projects. GSA looks to CBP to develop its priority list first. Then GSA, while still working closely with CBP, integrates these CBP priorities into GSA's larger, multiyear capital investment plan.    Over the past 16 years, GSA has invested more than $1.8 billion from the Federal buildings fund to deliver more than 20 new land ports along our northern and southern borders. Since 2013 GSA has requested over $1 billion in support of land port modernization, including GSA's fiscal year 2017 request of $248 million to reconfigure and expand the land port of entry in Calexico, California, and $5.7 million for design and construction of a new animal inspection facility in Pembina, North Dakota.    Of these requests, Congress has provided approximately $700 million through fiscal year 2016. Successful execution of these land port of entry projects improves trade and commerce, creates jobs, and bolsters our Nation's security. GSA's ability to fund land ports of entry has historically been supported by appropriations provided by Congress. Without the full funding requested in the President's annual budget, GSA cannot execute the land port upgrades that are critically needed.    In recent years GSA has seen greater interest in finding alternatives to Federal appropriations to support the delivery of high-priority land port projects, including by accepting donations through GSA and CBP existing authorities.    When assessing the viability of any project, whether it is funded through the traditional appropriations process or alternative means, GSA and CBP look at the full life cycle cost of a port. This analysis includes the funding amount and source of that funding to operate and maintain the facility.    If an alternative funding source might be available to construct a land port of entry, GSA and CBP still may need to obtain funding to address the other costs associated with the project. Thus, acceptance of what appears to be a cost-free donation could ultimately result in additional costs to the Government. At the same time, if the investment is required to address critical commerce and security requirements at the border, a donation would result in lower cost to the Government than if the Government had to make the full investment itself.    When evaluating donations, GSA and CBP will continue to weigh these various cost implications, relative to the opportunity to impact on CBP operations, border security, trade and travel, and local and regional economic benefits.    GSA has a longstanding authority to accept unconditional gifts of real and personal property from other public or private entities. GSA has used its authority on occasions when State or local governments and, in a few cases, private-sector entities have elected to donate land or other real property to GSA. Congress has supported efforts to find land port of entry funding alternatives by providing CBP additional statutory authority to receive donations and reimbursement from State, local, and private entities.    Congress expanded CBP and GSA's donation authorities through section 559 of the Consolidated Appropriations Act of 2014. As required by section 559 donation acceptance authority, GSA and CBP work collaboratively to establish robust evaluation criteria, incorporating feedback from a broad range of stakeholders.    Thank you for the opportunity to speak with you today about GSA's ongoing partnership with CBP to cost-effectively improve the Nation's infrastructure along America's borders.    I welcome the opportunity to discuss GSA's commitment to strategic investment in the Nation's land ports of entry, and am happy to answer any questions you may have.    Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Barletta. Thank you for your testimony.    Mr. Schied, you may proceed.</t>
   </si>
   <si>
-    <t>Schied</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Schied. Good morning, Chairman Barletta, Ranking Member Carson. Thank you for the opportunity to appear before you today to discuss CBP's role and efforts to provide modern, efficient, and effective land ports of entry facilities in support of our mission to secure and facilitate trade and travel into the United States.    Alongside the General Services Administration, CBP facilities management and engineering directorate oversees the repair and modernization of CBP's inspectional facilities at our 167 land border crossings along the U.S. border with Canada and Mexico.    Most of the land ports of entry were built prior to the creation of the Department of Homeland Security and CBP. When they were designed and built to support the distinct and independent operation of pre-DHS agencies such as the U.S. Customs Service, Animal and Plant Health Inspection Service, and the Immigration and Naturalization Service.    Today, CBP consolidated operations incorporate state-of-the-art technology and professional law enforcement personnel to maintain the efficient and secure flow of cross-border trade and travel. Operational success depends on the condition and utility of our inspectional facilities. As distinct from the conventional office environment, these facilities are unique and critical to CBP's mission success.    Today I would like to discuss CBP's role in addressing infrastructure demand and modernized inspection facilities to meet the challenge of growing volumes of trade and travel.    Many of the Nation's land port of entries were built more than 70 years ago. Even those constructed as recently as 15 years ago require renovation or replacement to meet present-day security standards, enforcement and facilities technologies, and the growing demand for additional processing capacity.    Trade between the United States and Mexico has expanded nearly sixfold, from $100 billion in 1993 to $531 billion last year, with similar increases in trade with Canada. During the same period, capital investment in the land port of entry facilities that process this trade and travel have averaged less than $90 million a year. This historic insufficiency in investment has led to a compounding current investment need estimated to be about $5 billion.    A study performed by the University of California Center for Risk and Economic Analysis of Terrorism Events, or CREATE, showed that an investment in constructing and staffing a single new vehicle processing lane at a port can translate to as much as $25 million in positive economic value.    CBP uses a multistep process to prioritize land port of entry modernization investments. In coordination with key State and Federal and local stakeholders, we assess individual needs at each facility. This assessment process is the underpinning of our prioritization process. It is metrics driven, its purpose is to identify candidate locations most in need of improvement.    In addition to this assessment, numerous other factors come into play. These include factors such as environmental, cultural, and historic preservation, land acquisition requirements, the impact on other projects in the same geographic area, and other project risks, including the likelihood of obtaining funds. After our assessment, we collaborate with GSA's Public Building Service to jointly develop a prioritized capital investment plan, and we update it annually to ensure that the available Federal funding is directed to the areas of greatest need.    CBP actively participates in regional border planning efforts and works in close coordination with regional transportation groups. We look carefully at each port's activity and its regional context, and we work with State and local stakeholders to determine where and what kind of inspection facilities are needed, both now and in the future.    In addition to traditional funding streams, thanks to the support of Congress, CBP has recently received the authority to enter into partnerships with the private sector and local government entities to accept donations of real and personal property. This authority provides CBP and GSA the opportunity to consider donations and proposals to address local port of entry infrastructure needs that might not otherwise be addressed. These donations are expected to reduce border wait times, support increased flow and volume of traffic, create jobs, and address critical needs.    Last year CBP and GSA selected three proposals for further planning and development. This spring we expect to announce additional selections, and we look forward to continuing to work with our partners for the shared goal.    In closing, thank you again, Chairman Barletta and Ranking Member Carson, for the opportunity to testify. And thank you for the interest and support of port of entry projects. And I am happy to answer your questions.</t>
   </si>
   <si>
@@ -142,9 +130,6 @@
     <t>412651</t>
   </si>
   <si>
-    <t>Ryan A. Costello</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Costello. Thank you, Mr. Chairman. To both the gentlemen, depending on the proposed infrastructure project, the Department of State often times must also issue permits. And the question becomes what are you doing to ensure that proposals considered under the pilot program are in accord with the State Department's project, and how are you coordinating with the Department of State as it may be applicable on the front end to ensure that there are no delays to the project as a result of Department of State requirements somewhere along the line.    And if you have experienced any delays along the line, do you have any recommendations in order to--how we might be able to get the Department of State to be a bit more accommodative, if that question may be applicable?</t>
   </si>
   <si>
@@ -166,9 +151,6 @@
     <t xml:space="preserve">    Mr. Barletta. Without objection, so ordered. Each of you is now recognized for 5 minutes.    Mr. Gallegos, you may proceed.</t>
   </si>
   <si>
-    <t>Gallegos</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gallegos. Well, good morning and thank you, Chairman Barletta and Ranking Member Carson, for having us here this morning. And thank you for holding this hearing today to discuss the growing importance of utilizing innovative funding strategies to implement critically needed improvements along the United States border.    Today's fiscal environment requires strategic investments in border infrastructure that, you know, maximize limited resources and incentivize what we would call leveraged partnerships. I appreciate the opportunity to testify today on the unique funding or financing approaches that we in San Diego are exploring to help provide the need to safely and efficiently move people across our border crossings with Mexico.    Today I am not only representing the San Diego Association of Governments, but also representing the Coalition for America's Gateways and Trade Corridors. SANDAG serves as a forum for regional decisionmaking in San Diego County that incorporates all 18 cities and the county government along the U.S. border, where we have a combined population of a little over 5 million people. We are also the federally designated MPO, or metropolitan planning organization for the San Diego region.    And in my capacity as executive director of SANDAG, I am proud to serve as a board member of the coalition, a diverse coalition of more than 60 public and private organizations dedicated to increasing Federal investment in America's multimodal freight infrastructure. The coalition works to bring national attention to the needs of the U.S. multimodal system and to educate Members of Congress and the public on the need to develop consensus for Federal investment policy that supports intermodal connectors, trade corridors, freight facilities, and gateway access.    I would like to ask if we could advance a couple of slides to give the committee some perspective on the region context.    [Slide]</t>
   </si>
   <si>
@@ -188,9 +170,6 @@
   </si>
   <si>
     <t xml:space="preserve">    Mr. Barletta. Thank you for your testimony.    Mr. Vale, you may proceed.</t>
-  </si>
-  <si>
-    <t>Vale</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Vale. Chairman Barletta and Ranking Member Carson and members of the subcommittee, my name is Sam Vale, and I am testifying on behalf of the Border Trade Alliance. We also are part of the South Texas Assets Consortium, which is a participant in the 559 Program, and we do operate a small, private port of entry. For 30 years the BTA has been providing analysis and advocacy for a U.S.--Canada and U.S.-Mexico border issues.    We will start with a fact: Adequate infrastructure produces less congestion and more efficient cross-border trade, as well as generates taxable income. Staffing of the inspection agencies has admittedly been deficient, primarily because of challenges on the hiring processes. And we understand that they are looking for solutions to get this taken care of in the future.    The average age of the border station is around 40 years, but the commercial truck inspection stations and infrastructure are woefully inadequate, and we need to start focusing on that. That is an important part of job creation within the United States.    For example, we have done a $250 million upgrade at the Mariposa Port of Entry in Arizona for fruits and vegetable imports, but yet today there is not enough staffing to keep all the new lanes operational all the times that they should be. This project was completed in 2014, and we are--still haven't got the staffing.    In south Texas we are growing dramatically in manufacturing and produce. And all of this could have been predicted 10 years ago if we had looked at the infrastructure being built in Mexico.    We are--our recommendation is that, with future border station construction, that when it is being planned, that the committee also needs to work with your colleagues in the committees that have oversight over CBP staffing, Federal and State highways, and truck inspections, because you all got to be on the same page, because it doesn't come to fruition until you get there.    The section 560 and 59, it is a viable, creative option to assist the Government in some of its expenses. The donation acceptance program is great, but there is two ideas that must drive them. One is flexibility and the other is return on investment. Flexibility is a must, particularly in the design processes that is going through.    The agencies must demonstrate a willingness to explore new ideas that are different than what they are used to seeing. To be blunt, return on investment--real estate investors and the international trade communities are not charities. They are looking for something in return. The Government should be prepared to demonstrate the financial upside for private and local public sector participation.    CBP appears to be responding to flexibility in the small-scale donation acceptance program, but they have recently announced they are even promising 60 to 70 percent improved processing times in the applications.    Not all border ports of entry need major infrastructure overhauls or dramatic staffing upgrades. The BTA supports pilot projects that have taken place in various parts of the country, and we support the pre-clearance of the Buffalo-bound cargo, where the inspection takes place on the Canadian side of the border and then comes to the U.S. We also support pre-clearance on the Mexican border with the United States. Laredo, Texas, has a pilot there. Otay Mesa, California, has pilots going. And there is even one in an electronics plant in Juarez, Mexico.    However, on the other hand, we need to avoid infrastructure agreements with States and foreign governments that lead to ongoing financial commitments. The BTA acknowledges that there is a significant debate over how to construct a new span across the Detroit River connecting Detroit in Michigan and Windsor, Ontario. We are not going to get into the details, because that is another group of issues, but we do have deep concerns over any agreement between governments to construct new bridge ports of entry requiring ongoing staffing commitments from CBP and other agencies without deliberation and appropriations from the Congress. Should not be done.    The 559 programs have benefitted on the southern border, because we are living up to our diplomatic notes, primarily using donated acceptance program funds. McAllen, Texas, donated the land for the port. Then they later have donated land in Mexico and helped build a road in Mexico. They built lanes on the U.S. side. Now they are building--they are going to be building a border station for truck inspection on the U.S. side on land that they had already donated.    So, there are a lot of opportunities. That is a great example of how you do the right thing. But we need to understand that this is--it is--in a perfect world, the Government should be able to finance all of these activities, and we don't have that perfect world today.    But today we do have an option. We can either choose to go forward with something that would be innovative and creative, or not. But we have a choice before we just lost competitiveness and tax dollars. So we are very happy to be part of that support group.    There is a role for the public and private sector--local public and private sector and the donation acceptance programs. Investors have to have confidence. We think you have to look real seriously at the large projects, because you are not going to get funding on some of these projects, and you can project it 30 years, but that could easily be a 50-year if you are talking about certain stretches of highways and access to how you have to function, because the border station is no good if it doesn't--it is like a bridge halfway there if you don't have all the ingress and egress routes put into what needs to be done.    The Border Trade Alliance appreciates the opportunity to testify. We look forward to finding solutions to our border challenges. I will answer any questions you may find.</t>
@@ -652,11 +631,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -676,13 +653,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -704,11 +679,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -730,11 +703,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -754,13 +725,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -782,11 +751,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -806,13 +773,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -834,11 +799,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -858,13 +821,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -886,11 +847,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -910,13 +869,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -938,11 +895,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -962,13 +917,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -990,11 +943,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1014,13 +965,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1040,13 +989,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1068,11 +1015,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1092,13 +1037,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1118,13 +1061,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1144,13 +1085,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1170,13 +1109,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1196,13 +1133,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1224,11 +1159,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1248,13 +1181,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>41</v>
-      </c>
-      <c r="G25" t="s">
-        <v>42</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1274,13 +1205,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1300,13 +1229,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1326,13 +1253,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
+        <v>37</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
         <v>41</v>
-      </c>
-      <c r="G28" t="s">
-        <v>42</v>
-      </c>
-      <c r="H28" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1354,11 +1279,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1380,11 +1303,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1406,11 +1327,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1430,13 +1349,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>19</v>
-      </c>
-      <c r="G32" t="s">
-        <v>50</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1456,13 +1373,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>19</v>
-      </c>
-      <c r="G33" t="s">
-        <v>50</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1482,13 +1397,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>19</v>
-      </c>
-      <c r="G34" t="s">
-        <v>50</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1508,13 +1421,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>19</v>
-      </c>
-      <c r="G35" t="s">
-        <v>50</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1534,13 +1445,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>19</v>
-      </c>
-      <c r="G36" t="s">
-        <v>50</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1560,13 +1469,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>19</v>
-      </c>
-      <c r="G37" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
         <v>50</v>
-      </c>
-      <c r="H37" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1588,11 +1495,9 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>12</v>
-      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1612,13 +1517,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>19</v>
-      </c>
-      <c r="G39" t="s">
-        <v>58</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1640,11 +1543,9 @@
       <c r="F40" t="s">
         <v>11</v>
       </c>
-      <c r="G40" t="s">
-        <v>12</v>
-      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1664,13 +1565,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>19</v>
-      </c>
-      <c r="G41" t="s">
-        <v>50</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1692,11 +1591,9 @@
       <c r="F42" t="s">
         <v>11</v>
       </c>
-      <c r="G42" t="s">
-        <v>12</v>
-      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1716,13 +1613,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>19</v>
-      </c>
-      <c r="G43" t="s">
-        <v>58</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1744,11 +1639,9 @@
       <c r="F44" t="s">
         <v>11</v>
       </c>
-      <c r="G44" t="s">
-        <v>12</v>
-      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1768,13 +1661,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>19</v>
-      </c>
-      <c r="G45" t="s">
+        <v>17</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
         <v>58</v>
-      </c>
-      <c r="H45" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1796,11 +1687,9 @@
       <c r="F46" t="s">
         <v>11</v>
       </c>
-      <c r="G46" t="s">
-        <v>12</v>
-      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1820,13 +1709,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1846,13 +1733,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>19</v>
-      </c>
-      <c r="G48" t="s">
-        <v>58</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1872,13 +1757,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1898,13 +1781,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>19</v>
-      </c>
-      <c r="G50" t="s">
-        <v>58</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1924,13 +1805,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1950,13 +1829,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>19</v>
-      </c>
-      <c r="G52" t="s">
-        <v>58</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1976,13 +1853,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2002,13 +1877,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>19</v>
-      </c>
-      <c r="G54" t="s">
-        <v>50</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2028,13 +1901,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2056,11 +1927,9 @@
       <c r="F56" t="s">
         <v>11</v>
       </c>
-      <c r="G56" t="s">
-        <v>12</v>
-      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2080,13 +1949,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>19</v>
-      </c>
-      <c r="G57" t="s">
-        <v>58</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2108,11 +1975,9 @@
       <c r="F58" t="s">
         <v>11</v>
       </c>
-      <c r="G58" t="s">
-        <v>12</v>
-      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2134,11 +1999,9 @@
       <c r="F59" t="s">
         <v>11</v>
       </c>
-      <c r="G59" t="s">
-        <v>12</v>
-      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20216.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20216.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="84">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>412469</t>
   </si>
   <si>
+    <t>Barletta</t>
+  </si>
+  <si>
+    <t>Lou</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Barletta. The committee will come to order. Good morning.    Border security is a fundamental responsibility of the Federal Government because we must protect both our national security and the American worker. This makes border stations critical to our Nation's security and our economy.The purpose of today's hearing is to review major capital projects at our Nation's border stations and examine how we can use non-Federal and private dollars that are sitting on the sidelines to jumpstart projects to help meet these infrastructure needs.    It is important that the men and women who guard our border have the resources that they need to better enforce our existing immigration and trade laws.    There are 167 land ports of entry, also known as border stations, that, according to GSA, see roughly $2 billion in trade crossings; 350,000 vehicles; 135,000 pedestrians, and 30,000 trucks daily. These land ports of entry are important to our national security, as they serve as a line of defense against those who would enter this country illegally and with the intent of attacking our homeland.    However, the cost of maintaining and modernizing our land ports of entry is not cheap. Projects recently completed or underway in recent years have totaled $1.5 billion. And these costs don't include equipping and staffing these border stations. That is why I worked to help craft language enacted in the fiscal year 2014 appropriations bill to establish a pilot program for public-private partnerships.    This pilot program allows for non-Federal donations of real property and equipment at owned border stations to help reduce costs to the taxpayer. More recently, language further refining this program was included as part of H.R. 3586, the Border and Maritime Coordination Improvement Act.    The intent of this pilot program is not to replace the Federal responsibility of constructing and maintaining these critical facilities. To be clear, making sure that we have the infrastructure and tools in place to enforce immigration and trade laws is a Federal responsibility. Rather, the intent is to provide additional tools to GSA and CBP to work with State, local, and private sector partners to help temporarily address the funding gaps.    Potential donations under the pilot should not be used to replace our Federal responsibility or to circumvent our process of appropriately identifying priorities and needs. Donations, whether they be of real property or equipment, are not free. Generally, acquisition costs are only a portion of the total cost of an asset.    Each project considered under the pilot program should be limited in scope and be carefully reviewed to ensure it fits with our national priorities and that the costs associated with ongoing maintenance and upkeep are assessed to protect the taxpayer from picking up an unexpected bill down the road.    While CBP owns 42 percent of the owned stations, GSA owns and manages all of the largest and most heavily used border stations. The size and complexity of these facilities vary widely and include facilities with traffic as little as two vehicles a day and 3,000-square-foot buildings, to large complexes that see thousands of vehicles and house a multitude of Federal agencies, including CBP, ICE, Agriculture, CDC, and the FDA.    Unfortunately, many of these border stations have not kept up with new technologies, threats, and traffic. We must ensure that we can effectively screen people and goods to protect our Nation's security and commerce, but at the same time facilitate the movement of legitimate traffic and goods. This is a tough balance, and the facilities and related infrastructure managed by GSA and CBP are critical to this mission.    Without proper facilities, new technologies like biometric entry and exit systems that better screen people and vehicles cannot be effectively deployed. Without space for all the key agencies to operate, commerce may be slowed, hurting American businesses and killing job opportunities.    Today, I am pleased to have GSA and CBP, as well as private and local representatives here with us today. We want to know the status of projects that we have authorized, what are the future needs and priorities, and how public-private partnerships could be effectively used to help temporarily fill any gaps. I hope we can get answers to these and other questions today. I look forward to hearing from our witnesses today, and I want to thank you.    And I now call on the ranking member of the subcommittee, Mr. Carson, for his opening statement.</t>
   </si>
   <si>
     <t>412258</t>
   </si>
   <si>
+    <t>Carson</t>
+  </si>
+  <si>
+    <t>André</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Carson. Thank you, Chairman Barletta. Good morning, everyone.    The GSA serves an important role as the property and construction manager for the Federal Government. Today(s hearing rightly chooses to focus on how GSA can continue to effectively manage the land ports of entry construction program.    GSA owns and manages all of the largest land ports of entry along the southern border. Daily nearly $2 billion in trade crosses through the border crossings, along with 355,000 vehicles; the 135,000 pedestrians; and 30,000 trucks. Today we hope to learn how GSA is improving the infrastructure at land ports of entry, and how they can facilitate more efficient and secure crossings between the United States and its trading partners along the southern and northern borders.    I would like to thank Deputy Commissioner Michael Gelber of GSA for joining us today to outline the agency's role in maintaining and constructing land ports of entry. The Department of Homeland Security often has the largest Federal agency presence at land ports of entry and border stations, so I am pleased that they will be joining us, as well.    I am also pleased that we have two organizations representing private sector organizations for coming in today and giving us their perspective on working with GSA and DHS. I also look forward to hearing their insights on how DHS is implementing the pilot public-private donation program that is meant to speed the development of land ports of entry. Thank you for coming.    I yield back, Mr. Chairman.</t>
   </si>
   <si>
@@ -70,12 +85,18 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Gelber</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Gelber. Good morning, Chairman Barletta, Ranking Member Carson. My name is Michael Gelber, and I am the Deputy Commissioner of the U.S. General Services Administration's Public Building Service. Thank you for inviting me to this hearing on land ports of entry construction.    GSA's mission is to deliver the best value in real estate, acquisition, and technology services to the Government and the American people. As part of this mission, GSA maintains a close partnership with the Department of Homeland Security Customs and Border Protection to meet that agency's space needs along our Nation's borders.    CBP is our primary partner among the Federal inspection agencies stationed along America's land borders. GSA works closely with CBP to design, construct, maintain, and operate land ports of entry along more than 1,900 miles of border between the United States and Mexico, and more than 5,500 miles of border between the United States and Canada. Of the 167 land ports of entry along America's borders, GSA manages 124, of which the Government owns or partially owns 102. GSA's land ports of entry encompass more than 5.5 million square feet of space.    CBP operates 40 primarily smaller ports, mostly in remote areas. These land ports of entry encompass approximately 477,000 square feet of space. Minimizing costs to deliver these critical land ports of entry begins with effective targeting of resources at the highest priority projects. GSA looks to CBP to develop its priority list first. Then GSA, while still working closely with CBP, integrates these CBP priorities into GSA's larger, multiyear capital investment plan.    Over the past 16 years, GSA has invested more than $1.8 billion from the Federal buildings fund to deliver more than 20 new land ports along our northern and southern borders. Since 2013 GSA has requested over $1 billion in support of land port modernization, including GSA's fiscal year 2017 request of $248 million to reconfigure and expand the land port of entry in Calexico, California, and $5.7 million for design and construction of a new animal inspection facility in Pembina, North Dakota.    Of these requests, Congress has provided approximately $700 million through fiscal year 2016. Successful execution of these land port of entry projects improves trade and commerce, creates jobs, and bolsters our Nation's security. GSA's ability to fund land ports of entry has historically been supported by appropriations provided by Congress. Without the full funding requested in the President's annual budget, GSA cannot execute the land port upgrades that are critically needed.    In recent years GSA has seen greater interest in finding alternatives to Federal appropriations to support the delivery of high-priority land port projects, including by accepting donations through GSA and CBP existing authorities.    When assessing the viability of any project, whether it is funded through the traditional appropriations process or alternative means, GSA and CBP look at the full life cycle cost of a port. This analysis includes the funding amount and source of that funding to operate and maintain the facility.    If an alternative funding source might be available to construct a land port of entry, GSA and CBP still may need to obtain funding to address the other costs associated with the project. Thus, acceptance of what appears to be a cost-free donation could ultimately result in additional costs to the Government. At the same time, if the investment is required to address critical commerce and security requirements at the border, a donation would result in lower cost to the Government than if the Government had to make the full investment itself.    When evaluating donations, GSA and CBP will continue to weigh these various cost implications, relative to the opportunity to impact on CBP operations, border security, trade and travel, and local and regional economic benefits.    GSA has a longstanding authority to accept unconditional gifts of real and personal property from other public or private entities. GSA has used its authority on occasions when State or local governments and, in a few cases, private-sector entities have elected to donate land or other real property to GSA. Congress has supported efforts to find land port of entry funding alternatives by providing CBP additional statutory authority to receive donations and reimbursement from State, local, and private entities.    Congress expanded CBP and GSA's donation authorities through section 559 of the Consolidated Appropriations Act of 2014. As required by section 559 donation acceptance authority, GSA and CBP work collaboratively to establish robust evaluation criteria, incorporating feedback from a broad range of stakeholders.    Thank you for the opportunity to speak with you today about GSA's ongoing partnership with CBP to cost-effectively improve the Nation's infrastructure along America's borders.    I welcome the opportunity to discuss GSA's commitment to strategic investment in the Nation's land ports of entry, and am happy to answer any questions you may have.    Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Barletta. Thank you for your testimony.    Mr. Schied, you may proceed.</t>
   </si>
   <si>
+    <t>Schied</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Schied. Good morning, Chairman Barletta, Ranking Member Carson. Thank you for the opportunity to appear before you today to discuss CBP's role and efforts to provide modern, efficient, and effective land ports of entry facilities in support of our mission to secure and facilitate trade and travel into the United States.    Alongside the General Services Administration, CBP facilities management and engineering directorate oversees the repair and modernization of CBP's inspectional facilities at our 167 land border crossings along the U.S. border with Canada and Mexico.    Most of the land ports of entry were built prior to the creation of the Department of Homeland Security and CBP. When they were designed and built to support the distinct and independent operation of pre-DHS agencies such as the U.S. Customs Service, Animal and Plant Health Inspection Service, and the Immigration and Naturalization Service.    Today, CBP consolidated operations incorporate state-of-the-art technology and professional law enforcement personnel to maintain the efficient and secure flow of cross-border trade and travel. Operational success depends on the condition and utility of our inspectional facilities. As distinct from the conventional office environment, these facilities are unique and critical to CBP's mission success.    Today I would like to discuss CBP's role in addressing infrastructure demand and modernized inspection facilities to meet the challenge of growing volumes of trade and travel.    Many of the Nation's land port of entries were built more than 70 years ago. Even those constructed as recently as 15 years ago require renovation or replacement to meet present-day security standards, enforcement and facilities technologies, and the growing demand for additional processing capacity.    Trade between the United States and Mexico has expanded nearly sixfold, from $100 billion in 1993 to $531 billion last year, with similar increases in trade with Canada. During the same period, capital investment in the land port of entry facilities that process this trade and travel have averaged less than $90 million a year. This historic insufficiency in investment has led to a compounding current investment need estimated to be about $5 billion.    A study performed by the University of California Center for Risk and Economic Analysis of Terrorism Events, or CREATE, showed that an investment in constructing and staffing a single new vehicle processing lane at a port can translate to as much as $25 million in positive economic value.    CBP uses a multistep process to prioritize land port of entry modernization investments. In coordination with key State and Federal and local stakeholders, we assess individual needs at each facility. This assessment process is the underpinning of our prioritization process. It is metrics driven, its purpose is to identify candidate locations most in need of improvement.    In addition to this assessment, numerous other factors come into play. These include factors such as environmental, cultural, and historic preservation, land acquisition requirements, the impact on other projects in the same geographic area, and other project risks, including the likelihood of obtaining funds. After our assessment, we collaborate with GSA's Public Building Service to jointly develop a prioritized capital investment plan, and we update it annually to ensure that the available Federal funding is directed to the areas of greatest need.    CBP actively participates in regional border planning efforts and works in close coordination with regional transportation groups. We look carefully at each port's activity and its regional context, and we work with State and local stakeholders to determine where and what kind of inspection facilities are needed, both now and in the future.    In addition to traditional funding streams, thanks to the support of Congress, CBP has recently received the authority to enter into partnerships with the private sector and local government entities to accept donations of real and personal property. This authority provides CBP and GSA the opportunity to consider donations and proposals to address local port of entry infrastructure needs that might not otherwise be addressed. These donations are expected to reduce border wait times, support increased flow and volume of traffic, create jobs, and address critical needs.    Last year CBP and GSA selected three proposals for further planning and development. This spring we expect to announce additional selections, and we look forward to continuing to work with our partners for the shared goal.    In closing, thank you again, Chairman Barletta and Ranking Member Carson, for the opportunity to testify. And thank you for the interest and support of port of entry projects. And I am happy to answer your questions.</t>
   </si>
   <si>
@@ -130,6 +151,12 @@
     <t>412651</t>
   </si>
   <si>
+    <t>Costello</t>
+  </si>
+  <si>
+    <t>Ryan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Costello. Thank you, Mr. Chairman. To both the gentlemen, depending on the proposed infrastructure project, the Department of State often times must also issue permits. And the question becomes what are you doing to ensure that proposals considered under the pilot program are in accord with the State Department's project, and how are you coordinating with the Department of State as it may be applicable on the front end to ensure that there are no delays to the project as a result of Department of State requirements somewhere along the line.    And if you have experienced any delays along the line, do you have any recommendations in order to--how we might be able to get the Department of State to be a bit more accommodative, if that question may be applicable?</t>
   </si>
   <si>
@@ -151,6 +178,9 @@
     <t xml:space="preserve">    Mr. Barletta. Without objection, so ordered. Each of you is now recognized for 5 minutes.    Mr. Gallegos, you may proceed.</t>
   </si>
   <si>
+    <t>Gallegos</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Gallegos. Well, good morning and thank you, Chairman Barletta and Ranking Member Carson, for having us here this morning. And thank you for holding this hearing today to discuss the growing importance of utilizing innovative funding strategies to implement critically needed improvements along the United States border.    Today's fiscal environment requires strategic investments in border infrastructure that, you know, maximize limited resources and incentivize what we would call leveraged partnerships. I appreciate the opportunity to testify today on the unique funding or financing approaches that we in San Diego are exploring to help provide the need to safely and efficiently move people across our border crossings with Mexico.    Today I am not only representing the San Diego Association of Governments, but also representing the Coalition for America's Gateways and Trade Corridors. SANDAG serves as a forum for regional decisionmaking in San Diego County that incorporates all 18 cities and the county government along the U.S. border, where we have a combined population of a little over 5 million people. We are also the federally designated MPO, or metropolitan planning organization for the San Diego region.    And in my capacity as executive director of SANDAG, I am proud to serve as a board member of the coalition, a diverse coalition of more than 60 public and private organizations dedicated to increasing Federal investment in America's multimodal freight infrastructure. The coalition works to bring national attention to the needs of the U.S. multimodal system and to educate Members of Congress and the public on the need to develop consensus for Federal investment policy that supports intermodal connectors, trade corridors, freight facilities, and gateway access.    I would like to ask if we could advance a couple of slides to give the committee some perspective on the region context.    [Slide]</t>
   </si>
   <si>
@@ -170,6 +200,9 @@
   </si>
   <si>
     <t xml:space="preserve">    Mr. Barletta. Thank you for your testimony.    Mr. Vale, you may proceed.</t>
+  </si>
+  <si>
+    <t>Vale</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Vale. Chairman Barletta and Ranking Member Carson and members of the subcommittee, my name is Sam Vale, and I am testifying on behalf of the Border Trade Alliance. We also are part of the South Texas Assets Consortium, which is a participant in the 559 Program, and we do operate a small, private port of entry. For 30 years the BTA has been providing analysis and advocacy for a U.S.--Canada and U.S.-Mexico border issues.    We will start with a fact: Adequate infrastructure produces less congestion and more efficient cross-border trade, as well as generates taxable income. Staffing of the inspection agencies has admittedly been deficient, primarily because of challenges on the hiring processes. And we understand that they are looking for solutions to get this taken care of in the future.    The average age of the border station is around 40 years, but the commercial truck inspection stations and infrastructure are woefully inadequate, and we need to start focusing on that. That is an important part of job creation within the United States.    For example, we have done a $250 million upgrade at the Mariposa Port of Entry in Arizona for fruits and vegetable imports, but yet today there is not enough staffing to keep all the new lanes operational all the times that they should be. This project was completed in 2014, and we are--still haven't got the staffing.    In south Texas we are growing dramatically in manufacturing and produce. And all of this could have been predicted 10 years ago if we had looked at the infrastructure being built in Mexico.    We are--our recommendation is that, with future border station construction, that when it is being planned, that the committee also needs to work with your colleagues in the committees that have oversight over CBP staffing, Federal and State highways, and truck inspections, because you all got to be on the same page, because it doesn't come to fruition until you get there.    The section 560 and 59, it is a viable, creative option to assist the Government in some of its expenses. The donation acceptance program is great, but there is two ideas that must drive them. One is flexibility and the other is return on investment. Flexibility is a must, particularly in the design processes that is going through.    The agencies must demonstrate a willingness to explore new ideas that are different than what they are used to seeing. To be blunt, return on investment--real estate investors and the international trade communities are not charities. They are looking for something in return. The Government should be prepared to demonstrate the financial upside for private and local public sector participation.    CBP appears to be responding to flexibility in the small-scale donation acceptance program, but they have recently announced they are even promising 60 to 70 percent improved processing times in the applications.    Not all border ports of entry need major infrastructure overhauls or dramatic staffing upgrades. The BTA supports pilot projects that have taken place in various parts of the country, and we support the pre-clearance of the Buffalo-bound cargo, where the inspection takes place on the Canadian side of the border and then comes to the U.S. We also support pre-clearance on the Mexican border with the United States. Laredo, Texas, has a pilot there. Otay Mesa, California, has pilots going. And there is even one in an electronics plant in Juarez, Mexico.    However, on the other hand, we need to avoid infrastructure agreements with States and foreign governments that lead to ongoing financial commitments. The BTA acknowledges that there is a significant debate over how to construct a new span across the Detroit River connecting Detroit in Michigan and Windsor, Ontario. We are not going to get into the details, because that is another group of issues, but we do have deep concerns over any agreement between governments to construct new bridge ports of entry requiring ongoing staffing commitments from CBP and other agencies without deliberation and appropriations from the Congress. Should not be done.    The 559 programs have benefitted on the southern border, because we are living up to our diplomatic notes, primarily using donated acceptance program funds. McAllen, Texas, donated the land for the port. Then they later have donated land in Mexico and helped build a road in Mexico. They built lanes on the U.S. side. Now they are building--they are going to be building a border station for truck inspection on the U.S. side on land that they had already donated.    So, there are a lot of opportunities. That is a great example of how you do the right thing. But we need to understand that this is--it is--in a perfect world, the Government should be able to finance all of these activities, and we don't have that perfect world today.    But today we do have an option. We can either choose to go forward with something that would be innovative and creative, or not. But we have a choice before we just lost competitiveness and tax dollars. So we are very happy to be part of that support group.    There is a role for the public and private sector--local public and private sector and the donation acceptance programs. Investors have to have confidence. We think you have to look real seriously at the large projects, because you are not going to get funding on some of these projects, and you can project it 30 years, but that could easily be a 50-year if you are talking about certain stretches of highways and access to how you have to function, because the border station is no good if it doesn't--it is like a bridge halfway there if you don't have all the ingress and egress routes put into what needs to be done.    The Border Trade Alliance appreciates the opportunity to testify. We look forward to finding solutions to our border challenges. I will answer any questions you may find.</t>
@@ -581,7 +614,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -589,7 +622,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -611,1397 +644,1638 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G19" t="s">
+        <v>17</v>
+      </c>
       <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G21" t="s">
+        <v>17</v>
+      </c>
       <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G22" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
         <v>13</v>
       </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>44</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
       <c r="H25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>44</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
       <c r="H28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
       <c r="H29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
       <c r="H30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
       <c r="H31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>17</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G32" t="s">
+        <v>54</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>17</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G33" t="s">
+        <v>54</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>17</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G34" t="s">
+        <v>54</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G35" t="s">
+        <v>54</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>17</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G36" t="s">
+        <v>54</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G37" t="s">
+        <v>54</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
       <c r="H38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>17</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G39" t="s">
+        <v>62</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>13</v>
+      </c>
       <c r="H40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>17</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
+        <v>22</v>
+      </c>
+      <c r="G41" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>13</v>
+      </c>
       <c r="H42" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>17</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G43" t="s">
+        <v>62</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G44" t="s">
+        <v>13</v>
+      </c>
       <c r="H44" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>17</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G45" t="s">
+        <v>62</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
+        <v>13</v>
+      </c>
       <c r="H46" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G47" t="s">
+        <v>17</v>
+      </c>
       <c r="H47" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>17</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G48" t="s">
+        <v>62</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G49" t="s">
+        <v>17</v>
+      </c>
       <c r="H49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I49" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>17</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G50" t="s">
+        <v>62</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G51" t="s">
+        <v>17</v>
+      </c>
       <c r="H51" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I51" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>17</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G52" t="s">
+        <v>62</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G53" t="s">
+        <v>17</v>
+      </c>
       <c r="H53" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I53" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>17</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G54" t="s">
+        <v>54</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G55" t="s">
+        <v>17</v>
+      </c>
       <c r="H55" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I55" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G56" t="s">
+        <v>13</v>
+      </c>
       <c r="H56" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I56" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>17</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G57" t="s">
+        <v>62</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>13</v>
+      </c>
       <c r="H58" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I58" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G59" t="s">
+        <v>13</v>
+      </c>
       <c r="H59" t="s">
-        <v>72</v>
+        <v>14</v>
+      </c>
+      <c r="I59" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20216.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20216.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="88">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412469</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Barletta</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>412258</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Carson</t>
   </si>
   <si>
@@ -149,6 +158,9 @@
   </si>
   <si>
     <t>412651</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Costello</t>
@@ -614,7 +626,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:J59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -622,7 +634,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -647,1635 +659,1760 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G13" t="s">
         <v>14</v>
       </c>
-      <c r="I11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
         <v>26</v>
       </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" t="s">
-        <v>26</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" t="s">
-        <v>23</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H23" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="J25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" t="s">
-        <v>23</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>26</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" t="s">
-        <v>26</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>29</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I28" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="J28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I31" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" t="s">
-        <v>54</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>58</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" t="s">
-        <v>54</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>58</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G34" t="s">
-        <v>54</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>58</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>22</v>
-      </c>
-      <c r="G35" t="s">
-        <v>54</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>22</v>
-      </c>
-      <c r="G36" t="s">
-        <v>54</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>58</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37" t="s">
-        <v>54</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>58</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I38" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>22</v>
-      </c>
-      <c r="G39" t="s">
-        <v>62</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>66</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I40" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>22</v>
-      </c>
-      <c r="G41" t="s">
-        <v>54</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>58</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I42" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>22</v>
-      </c>
-      <c r="G43" t="s">
-        <v>62</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>66</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I44" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>22</v>
-      </c>
-      <c r="G45" t="s">
-        <v>62</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>66</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I46" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G47" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H47" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I47" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G48" t="s">
-        <v>62</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>66</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G49" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H49" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I49" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>22</v>
-      </c>
-      <c r="G50" t="s">
-        <v>62</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>66</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G51" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H51" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I51" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>22</v>
-      </c>
-      <c r="G52" t="s">
-        <v>62</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>66</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G53" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H53" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I53" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J53" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>22</v>
-      </c>
-      <c r="G54" t="s">
-        <v>54</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>58</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G55" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H55" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I55" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J55" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G56" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H56" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I56" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>22</v>
-      </c>
-      <c r="G57" t="s">
-        <v>62</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>66</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I58" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J58" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G59" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H59" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I59" t="s">
-        <v>83</v>
+        <v>16</v>
+      </c>
+      <c r="J59" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
